--- a/excel/课表导入.xlsx
+++ b/excel/课表导入.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DJZHAO\Workspace\OTASHouse\Git\courseTable-backend\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DJZHAO\WORK\Workspaces\IDEA\arranging-courses\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DEC446-B75F-4763-98B5-1F5638865E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1EFB7-660C-45A3-8BDA-53F55F83D7B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="7935" windowWidth="20730" windowHeight="11835" xr2:uid="{D400EFBF-F349-4A0C-84F0-34807175A2CD}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D400EFBF-F349-4A0C-84F0-34807175A2CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +54,26 @@
   </si>
   <si>
     <t>大学英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可信计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微机原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F314B2D8-999A-45CD-B710-CCEA4C0819C3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,6 +490,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
